--- a/DOM_Banner/output/dept_banner/Bijin Thajudeen_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Bijin Thajudeen_2023.xlsx
@@ -736,12 +736,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Faculty reviews</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S4210207849</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2732-432X</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Introduction: Cell-based therapies potentially delay the trajectory toward end-stage kidney disease (ESKD) in late stage 4 diabetic chronic kidney disease (DKD). We describe the trial design, baseline patient characteristics, and early results of an IRB-approved phase II multicenter clinical trial, utilizing Renal Autologous Cell Therapy (REACT) in adults with pre-ESKD due to type 2 DKD. The trial objectives were safety and tolerability of REACT by assessment of the procedure, product administration, and renal-specific adverse events in addition to evaluate the impact on renal function following injection. Methods: Ten adults with an eGFR of 14–20 mL/min/1.73 m2 were enrolled in a single-arm open-label trial. Following a percutaneous kidney biopsy, an ex vivo expansion of selected renal cells that form the REACT was injected into the cortex of the biopsied kidney with CT image guidance. Each participant received two doses of the REACT product at 6-month intervals. A 6-month observation pre-trial was required to establish patients’ “own” baseline and rate of DKD progression. Results: Five men and 5 women underwent 19 REACT injections (1 participant received only one injection). Their baseline characteristics were as follows: 3 Hispanic/Latino, 7 non-Hispanic, 7 white; mean (SD) age: 58.9 years (5.22), BMI 35.8 (8.2), eGFR (sCR) 15.5 (2.72), eGFR (sCR + Cys-C) 17.7 (3.67) mL/min/1.73 m2, sCr 3.6 mg/mL (0.73), Cys-C 2.6 mg/mL (0.52), and log random UACR 7.9 mg/g (1.01). The pre- and post-injection eGFR slope was −6.5 mL/min/1.73 m2 and −3.9 mL/min/1.73 m2. No cell-related adverse events occurred, and two procedure-related hematomas required observation without transfusion or angiographic interventions. Dialysis was delayed a mean of 16 months (range 6–28 months). At 15 months, 2 patients (20%) have eGFR slope stability and have not commenced renal replacement therapy. Conclusion: Trials that include patients with an eGFR of &amp;lt;20 mL/min/1.73 m2 are uncommon, and none to date involve autologous homologous cell-based treatments. REACT has the potential to stabilize or delay dialysis in high-risk late stage 4 DKD.</t>
+          <t>Cell-based therapies potentially delay the trajectory toward end-stage kidney disease (ESKD) in late stage 4 diabetic chronic kidney disease (DKD). We describe the trial design, baseline patient characteristics, and early results of an IRB-approved phase II multicenter clinical trial, utilizing Renal Autologous Cell Therapy (REACT) in adults with pre-ESKD due to type 2 DKD. The trial objectives were safety and tolerability of REACT by assessment of the procedure, product administration, and renal-specific adverse events in addition to evaluate the impact on renal function following injection.Ten adults with an eGFR of 14-20 mL/min/1.73 m2 were enrolled in a single-arm open-label trial. Following a percutaneous kidney biopsy, an ex vivo expansion of selected renal cells that form the REACT was injected into the cortex of the biopsied kidney with CT image guidance. Each participant received two doses of the REACT product at 6-month intervals. A 6-month observation pre-trial was required to establish patients' "own" baseline and rate of DKD progression.Five men and 5 women underwent 19 REACT injections (1 participant received only one injection). Their baseline characteristics were as follows: 3 Hispanic/Latino, 7 non-Hispanic, 7 white; mean (SD) age: 58.9 years (5.22), BMI 35.8 (8.2), eGFR (sCR) 15.5 (2.72), eGFR (sCR + Cys-C) 17.7 (3.67) mL/min/1.73 m2, sCr 3.6 mg/mL (0.73), Cys-C 2.6 mg/mL (0.52), and log random UACR 7.9 mg/g (1.01). The pre- and post-injection eGFR slope was -6.5 mL/min/1.73 m2 and -3.9 mL/min/1.73 m2. No cell-related adverse events occurred, and two procedure-related hematomas required observation without transfusion or angiographic interventions. Dialysis was delayed a mean of 16 months (range 6-28 months). At 15 months, 2 patients (20%) have eGFR slope stability and have not commenced renal replacement therapy.Trials that include patients with an eGFR of &lt;20 mL/min/1.73 m2 are uncommon, and none to date involve autologous homologous cell-based treatments. REACT has the potential to stabilize or delay dialysis in high-risk late stage 4 DKD.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W1992882990", "https://openalex.org/W4320929188", "https://openalex.org/W2790532628", "https://openalex.org/W1971368128", "https://openalex.org/W3205964248", "https://openalex.org/W4311628015", "https://openalex.org/W3191427281", "https://openalex.org/W2087016115", "https://openalex.org/W2305775430", "https://openalex.org/W1990197915")</t>
+          <t>c("https://openalex.org/W2503350049", "https://openalex.org/W2329386257", "https://openalex.org/W2397616145", "https://openalex.org/W1988477118", "https://openalex.org/W4324058133", "https://openalex.org/W2397320258", "https://openalex.org/W648618910", "https://openalex.org/W4296658948", "https://openalex.org/W3167355683", "https://openalex.org/W3211565028")</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3036314732", "https://openalex.org/W4205317059", "https://openalex.org/W3009669391", "https://openalex.org/W4382894326", "https://openalex.org/W3198183218", "https://openalex.org/W3176864053", "https://openalex.org/W3084498529", "https://openalex.org/W3020699490", "https://openalex.org/W4292098121")</t>
+          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3009669391", "https://openalex.org/W4205317059", "https://openalex.org/W3084498529", "https://openalex.org/W3036314732", "https://openalex.org/W4200329650", "https://openalex.org/W3127156785", "https://openalex.org/W3005417802", "https://openalex.org/W3171943759", "https://openalex.org/W4226296940")</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Bijin Thajudeen_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Bijin Thajudeen_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson; Division of Nephrology, Banner University Medical Center, Tucson, Arizona; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323671354</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The Impact of Nirmatrelvir-Ritonavir in Reducing Hospitalizations Among High-Risk Patients With SARS-CoV-2 During the Omicron Predominant Era</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36898600</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376891120</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Advances in hemodialysis therapy</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-05-16</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Faculty reviews</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.12703/r/12-12</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37284495</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.12703/r/12-12</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ProKidney, Raleigh, North Carolina, USA.; Department of Medicine, Banner University of Arizona School of Medicine, Tucson, Arizona, USA.; Department of Medicine, Icahn School of Medicine at Mt. Sinai, New York, New York, USA.; Boise Kidney and Hypertension, Boise, Idaho, USA.; ProKidney, Raleigh, North Carolina, USA.; Department of Medicine, University of North Carolina School of Medicine, Chapel Hill, North Carolina, USA.; Department of Medicine, Vanderbilt University Medical Center, Nashville, Tennessee, USA.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313546524</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Renal Autologous Cell Therapy in Type 2 Diabetes with Late Stage 4 Diabetes-Related Chronic Kidney Disease: Trial Design and Early Analysis</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Blood Purification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Karger Publishers</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1159/000527582</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36599315</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1159/000527582</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>UNC Kidney Center, University of North Carolina, United States; Division of Nephrology, University of Arizona Medical Center, United States</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376114976</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Faculty Opinions recommendation of Effect of Hemodiafiltration on the Progression of Neuropathy with Kidney Failure: A Randomized Controlled Trial.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Faculty Opinions – Post-Publication Peer Review of the Biomedical Literature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3410/f.740446378.793598613</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3410/f.740446378.793598613</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>UNC Kidney Center, University of North Carolina, United States; Division of Nephrology, University of Arizona Medical Center, United States</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376114978</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Faculty Opinions recommendation of A call to action for the kidney community: nephrologists' perspective on advancing american kidney health.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Faculty Opinions – Post-Publication Peer Review of the Biomedical Literature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3410/f.736907612.793598620</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3410/f.736907612.793598620</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>UNC Kidney Center, University of North Carolina, United States; Division of Nephrology, University of Arizona Medical Center, United States</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376115024</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Faculty Opinions recommendation of A patient's perspective on advancing american kidney health initiative.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Faculty Opinions – Post-Publication Peer Review of the Biomedical Literature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3410/f.742639265.793598618</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3410/f.742639265.793598618</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>UNC Kidney Center, University of North Carolina, United States; Division of Nephrology, University of Arizona Medical Center, United States</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376115032</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Faculty Opinions recommendation of A new series of sorbent devices for multiple clinical purposes: current evidence and future directions.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Faculty Opinions – Post-Publication Peer Review of the Biomedical Literature</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3410/f.734076624.793598616</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3410/f.734076624.793598616</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
@@ -1021,39 +1061,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>UNC Kidney Center, University of North Carolina, United States; Division of Nephrology, University of Arizona Medical Center, United States</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376115047</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Faculty Opinions recommendation of Preliminary safety study of the Automated Wearable Artificial Kidney (AWAK) in Peritoneal Dialysis patients.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Faculty Opinions – Post-Publication Peer Review of the Biomedical Literature</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3410/f.742639264.793598615</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.3410/f.742639264.793598615</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
@@ -1103,39 +1148,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>UNC Kidney Center, University of North Carolina, United States; Division of Nephrology, University of Arizona Medical Center, United States</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376115050</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Faculty Opinions recommendation of Ambulatory Hemodialysis-Technology Landscape and Potential for Patient-Centered Treatment.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Faculty Opinions – Post-Publication Peer Review of the Biomedical Literature</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3410/f.736916099.793598617</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.3410/f.736916099.793598617</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
@@ -1185,39 +1235,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376471759</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Effectiveness of Casirivimab-Imdevimab and Sotrovimab Monoclonal Antibody Treatment among High-Risk Patients with Sars-Cov-2 Infection: A Real-World Experience</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Archives of clinical and biomedical research</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>https://doi.org/10.26502/acbr.50170347</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.26502/acbr.50170347</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Nephrology, Banner University of Arizona, TUCSON, Arizona, United States; Nephrology, Banner University of Arizona, Tucson, Arizona, United States; Cardiology, Banner University of Arizona, TUCSON, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320155</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>RENAL7: Unmet Needs In Nephrology: Survey Results to Drive Innovation</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943796.93114.88</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943796.93114.88</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>University of Arizona, Tuscon, Arizona, United States; University of Michigan, Ann Arbor, Michigan, United States; University of Chicago, Chicago, Illinois, United States; ProKidney, Raleigh, North Carolina, United States</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320188</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>RENAL12: Can Renal Autologous Cell Therapy (REACT) Delay Dialysis and Renal Transplantation in Chronic Kidney Disease with Type 2 Diabetes? The proact 1 and 2 Phase 3 Trial Design</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943816.28708.82</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943816.28708.82</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson; Division of Nephrology, College of Medicine, The University of Arizona, Tucson; Division of Nephrology, College of Medicine, The University of Arizona, Tucson; Division of Nephrology, College of Medicine, The University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4382864201</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Contemporary Monoclonal Antibody Utilization in Glomerular Diseases</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Mayo Clinic Proceedings: Innovations, Quality &amp; Outcomes</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.mayocpiqo.2023.04.009</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37448529</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.mayocpiqo.2023.04.009</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
